--- a/fuentes/contenidos/grado07/guion01/SolicitudGraficaCS_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/SolicitudGraficaCS_07_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="266">
   <si>
     <t>Fecha:</t>
   </si>
@@ -655,46 +655,19 @@
     <t>Fotografía castillo en Aviñon</t>
   </si>
   <si>
-    <t>2 Eso/Ciencias sociales/la penísula Ibérica en la baja edad media/la corona de Castlila</t>
-  </si>
-  <si>
-    <t>Mapa de la península Ibérica sobre la evolución de la reconquista</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/la cultura en la Edad Media</t>
-  </si>
-  <si>
     <t>Ilustración sobre el precepto “reza y trabaja”</t>
   </si>
   <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos</t>
-  </si>
-  <si>
-    <t>Foto diptico El emperador triunfante de Barberini</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/arquitectura</t>
-  </si>
-  <si>
     <t>Ilustración basílica de Santa Sofía</t>
   </si>
   <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/escultura</t>
-  </si>
-  <si>
     <t>Foto cátedra del obispo Maximiliano</t>
   </si>
   <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/pintura y mosaico</t>
-  </si>
-  <si>
     <t>Foto interior de la basílica de Santa Sofía de Constantinopla</t>
   </si>
   <si>
     <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/el arte mozárabe</t>
-  </si>
-  <si>
-    <t>Foto interior de la iglesia del monasterio de San Miguel de Escalada</t>
   </si>
   <si>
     <t>Ilustración de una página de los Comentarios al Apocalipsis</t>
@@ -908,6 +881,30 @@
   <si>
     <t>Ninguna</t>
   </si>
+  <si>
+    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/la cultura en la Edad Media/los monasterios y las órdenes religiosas</t>
+  </si>
+  <si>
+    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos</t>
+  </si>
+  <si>
+    <t>Foto díptico El emperador triunfante de Barberini</t>
+  </si>
+  <si>
+    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/arquitectura</t>
+  </si>
+  <si>
+    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/escultura</t>
+  </si>
+  <si>
+    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/pintura y mosaico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Eso/Ciencias Media/el arte mozárabe Sociales/la cultura y el arte en la Alta Edad </t>
+  </si>
+  <si>
+    <t>Foto interior de la iglesia del monasterio de San Miguel de Escala</t>
+  </si>
 </sst>
 </file>
 
@@ -916,7 +913,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1070,6 +1067,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1631,7 +1633,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1919,6 +1921,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2669,9 +2672,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2877,10 +2880,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F10" s="11" t="str">
         <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2902,12 +2905,12 @@
         <v>149</v>
       </c>
       <c r="K10" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="9" customFormat="1" ht="44">
       <c r="A11" s="62" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>151</v>
@@ -2917,10 +2920,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F11" s="11" t="str">
         <f t="shared" ref="F11:F72" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2942,12 +2945,12 @@
         <v>152</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="9" customFormat="1" ht="44">
       <c r="A12" s="62" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>153</v>
@@ -2957,10 +2960,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F12" s="11" t="str">
         <f t="shared" si="4"/>
@@ -2982,12 +2985,12 @@
         <v>154</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="9" customFormat="1" ht="56" thickBot="1">
       <c r="A13" s="62" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>156</v>
@@ -2997,10 +3000,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F13" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3022,12 +3025,12 @@
         <v>155</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A14" s="62" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B14" s="57" t="s">
         <v>157</v>
@@ -3037,10 +3040,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F14" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3062,12 +3065,12 @@
         <v>158</v>
       </c>
       <c r="K14" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A15" s="62" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B15" s="57" t="s">
         <v>157</v>
@@ -3077,10 +3080,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F15" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3102,12 +3105,12 @@
         <v>159</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A16" s="62" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B16" s="59" t="s">
         <v>161</v>
@@ -3117,10 +3120,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F16" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3142,12 +3145,12 @@
         <v>160</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" ht="33">
       <c r="A17" s="62" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>162</v>
@@ -3157,10 +3160,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F17" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3182,12 +3185,12 @@
         <v>163</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" ht="44">
       <c r="A18" s="62" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>164</v>
@@ -3197,10 +3200,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F18" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3222,12 +3225,12 @@
         <v>165</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" ht="22">
       <c r="A19" s="62" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B19" s="59" t="s">
         <v>166</v>
@@ -3237,10 +3240,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F19" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3262,12 +3265,12 @@
         <v>167</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" ht="33">
       <c r="A20" s="62" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>168</v>
@@ -3277,10 +3280,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F20" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3302,12 +3305,12 @@
         <v>169</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A21" s="62" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B21" s="59" t="s">
         <v>171</v>
@@ -3317,10 +3320,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F21" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3342,12 +3345,12 @@
         <v>170</v>
       </c>
       <c r="K21" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A22" s="62" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B22" s="57" t="s">
         <v>172</v>
@@ -3357,10 +3360,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F22" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3382,12 +3385,12 @@
         <v>173</v>
       </c>
       <c r="K22" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" ht="44">
       <c r="A23" s="62" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>174</v>
@@ -3397,10 +3400,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F23" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3422,12 +3425,12 @@
         <v>175</v>
       </c>
       <c r="K23" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A24" s="62" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>176</v>
@@ -3437,10 +3440,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F24" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3462,12 +3465,12 @@
         <v>177</v>
       </c>
       <c r="K24" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A25" s="62" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B25" s="59" t="s">
         <v>178</v>
@@ -3477,10 +3480,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F25" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3502,12 +3505,12 @@
         <v>179</v>
       </c>
       <c r="K25" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" ht="33">
       <c r="A26" s="62" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B26" s="59" t="s">
         <v>178</v>
@@ -3517,10 +3520,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F26" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3542,12 +3545,12 @@
         <v>180</v>
       </c>
       <c r="K26" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A27" s="62" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>181</v>
@@ -3557,10 +3560,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F27" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3582,12 +3585,12 @@
         <v>182</v>
       </c>
       <c r="K27" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" ht="56" thickBot="1">
       <c r="A28" s="62" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>183</v>
@@ -3597,10 +3600,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F28" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3622,12 +3625,12 @@
         <v>184</v>
       </c>
       <c r="K28" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" ht="44">
       <c r="A29" s="62" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B29" s="59" t="s">
         <v>185</v>
@@ -3637,10 +3640,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F29" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3662,12 +3665,12 @@
         <v>186</v>
       </c>
       <c r="K29" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" ht="55">
       <c r="A30" s="62" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>187</v>
@@ -3677,10 +3680,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F30" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3702,12 +3705,12 @@
         <v>188</v>
       </c>
       <c r="K30" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A31" s="62" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B31" s="59" t="s">
         <v>189</v>
@@ -3717,10 +3720,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F31" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3742,12 +3745,12 @@
         <v>190</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" ht="23" thickBot="1">
       <c r="A32" s="62" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>191</v>
@@ -3757,10 +3760,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F32" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3782,12 +3785,12 @@
         <v>192</v>
       </c>
       <c r="K32" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" ht="33">
       <c r="A33" s="62" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B33" s="59" t="s">
         <v>193</v>
@@ -3797,10 +3800,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F33" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3822,25 +3825,25 @@
         <v>194</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A34" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>195</v>
+        <v>238</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>258</v>
       </c>
       <c r="C34" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F34" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3858,29 +3861,29 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="59" t="s">
-        <v>196</v>
+      <c r="J34" s="106" t="s">
+        <v>195</v>
       </c>
       <c r="K34" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A35" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>197</v>
+        <v>239</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>259</v>
       </c>
       <c r="C35" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F35" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3898,26 +3901,26 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="57" t="s">
-        <v>198</v>
+      <c r="J35" s="106" t="s">
+        <v>260</v>
       </c>
       <c r="K35" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A36" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>199</v>
+        <v>240</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>261</v>
       </c>
       <c r="C36" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="str">
@@ -3936,26 +3939,26 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="58" t="s">
-        <v>200</v>
+      <c r="J36" s="106" t="s">
+        <v>196</v>
       </c>
       <c r="K36" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" ht="55">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A37" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>201</v>
+        <v>241</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>262</v>
       </c>
       <c r="C37" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="str">
@@ -3974,26 +3977,26 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="58" t="s">
-        <v>202</v>
+      <c r="J37" s="106" t="s">
+        <v>197</v>
       </c>
       <c r="K37" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" ht="44">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A38" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>203</v>
+        <v>242</v>
+      </c>
+      <c r="B38" s="106" t="s">
+        <v>263</v>
       </c>
       <c r="C38" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="str">
@@ -4012,26 +4015,26 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="58" t="s">
-        <v>204</v>
+      <c r="J38" s="106" t="s">
+        <v>198</v>
       </c>
       <c r="K38" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" ht="55">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A39" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>205</v>
+        <v>243</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>264</v>
       </c>
       <c r="C39" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="str">
@@ -4050,26 +4053,26 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="59" t="s">
-        <v>206</v>
+      <c r="J39" s="106" t="s">
+        <v>265</v>
       </c>
       <c r="K39" s="59" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="46" thickBot="1">
       <c r="A40" s="62" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C40" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="str">
@@ -4088,26 +4091,26 @@
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="59" t="s">
-        <v>208</v>
+      <c r="J40" s="106" t="s">
+        <v>200</v>
       </c>
       <c r="K40" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A41" s="62" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C41" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="str">
@@ -4127,25 +4130,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J41" s="59" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K41" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A42" s="62" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C42" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="str">
@@ -4165,25 +4168,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J42" s="57" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K42" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A43" s="62" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C43" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="str">
@@ -4203,25 +4206,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J43" s="57" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K43" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A44" s="62" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C44" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="str">
@@ -4241,25 +4244,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J44" s="58" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K44" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="44">
       <c r="A45" s="62" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C45" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="str">
@@ -4279,25 +4282,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K45" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="44">
       <c r="A46" s="62" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C46" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="str">
@@ -4317,25 +4320,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J46" s="58" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K46" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A47" s="62" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C47" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="str">
@@ -4355,25 +4358,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J47" s="58" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K47" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A48" s="62" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C48" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="str">
@@ -4393,25 +4396,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J48" s="59" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K48" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" ht="55">
       <c r="A49" s="62" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C49" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="str">
@@ -4431,10 +4434,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J49" s="59" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K49" s="59" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="9" customFormat="1">

--- a/fuentes/contenidos/grado07/guion01/SolicitudGraficaCS_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/SolicitudGraficaCS_07_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25000" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="266">
   <si>
     <t>Fecha:</t>
   </si>
@@ -867,9 +867,6 @@
     <t>IMG39</t>
   </si>
   <si>
-    <t>IMG40</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
@@ -904,6 +901,9 @@
   </si>
   <si>
     <t>Foto interior de la iglesia del monasterio de San Miguel de Escala</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1578,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1632,8 +1632,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1837,6 +1839,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,9 +1924,14 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1950,6 +1958,7 @@
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1976,6 +1985,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2670,11 +2680,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2712,14 +2722,14 @@
       <c r="B2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="F2" s="75" t="s">
+      <c r="D2" s="84"/>
+      <c r="F2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="13"/>
@@ -2729,14 +2739,14 @@
       <c r="B3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="85">
         <v>7</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="F3" s="77">
+      <c r="D3" s="86"/>
+      <c r="F3" s="78">
         <v>42071</v>
       </c>
-      <c r="G3" s="78"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="13"/>
@@ -2746,10 +2756,10 @@
       <c r="B4" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="3"/>
       <c r="F4" s="68" t="s">
         <v>55</v>
@@ -2767,10 +2777,10 @@
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="3"/>
       <c r="F5" s="32" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2819,12 +2829,12 @@
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
       <c r="J8" s="15"/>
       <c r="K8" s="9"/>
       <c r="L8" s="2"/>
@@ -2880,10 +2890,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="F10" s="11" t="str">
         <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2905,7 +2915,7 @@
         <v>149</v>
       </c>
       <c r="K10" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="9" customFormat="1" ht="44">
@@ -2916,17 +2926,17 @@
         <v>151</v>
       </c>
       <c r="C11" s="17" t="str">
-        <f t="shared" ref="C11:C74" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C11:C73" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="11" t="str">
-        <f t="shared" ref="F11:F72" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F11:F71" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_07_01_CO_IMG02_small</v>
       </c>
       <c r="G11" s="11" t="str">
@@ -2934,7 +2944,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f t="shared" ref="H11:H72" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H11:H71" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_07_01_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="11" t="str">
@@ -2945,7 +2955,7 @@
         <v>152</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="9" customFormat="1" ht="44">
@@ -2960,10 +2970,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" s="11" t="str">
         <f t="shared" si="4"/>
@@ -2985,7 +2995,7 @@
         <v>154</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="9" customFormat="1" ht="56" thickBot="1">
@@ -3000,10 +3010,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F13" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3025,7 +3035,7 @@
         <v>155</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
@@ -3040,10 +3050,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="F14" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3065,7 +3075,7 @@
         <v>158</v>
       </c>
       <c r="K14" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
@@ -3080,10 +3090,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="F15" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3105,7 +3115,7 @@
         <v>159</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
@@ -3120,10 +3130,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3145,7 +3155,7 @@
         <v>160</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" ht="33">
@@ -3160,10 +3170,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3185,7 +3195,7 @@
         <v>163</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" ht="44">
@@ -3200,10 +3210,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="F18" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3225,7 +3235,7 @@
         <v>165</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" ht="22">
@@ -3240,10 +3250,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F19" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3265,7 +3275,7 @@
         <v>167</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" ht="33">
@@ -3280,10 +3290,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3305,7 +3315,7 @@
         <v>169</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
@@ -3320,10 +3330,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3345,7 +3355,7 @@
         <v>170</v>
       </c>
       <c r="K21" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
@@ -3360,10 +3370,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F22" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3385,7 +3395,7 @@
         <v>173</v>
       </c>
       <c r="K22" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" ht="44">
@@ -3400,10 +3410,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3425,7 +3435,7 @@
         <v>175</v>
       </c>
       <c r="K23" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
@@ -3440,10 +3450,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3465,7 +3475,7 @@
         <v>177</v>
       </c>
       <c r="K24" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
@@ -3480,10 +3490,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F25" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3505,7 +3515,7 @@
         <v>179</v>
       </c>
       <c r="K25" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" ht="33">
@@ -3520,10 +3530,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F26" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3545,7 +3555,7 @@
         <v>180</v>
       </c>
       <c r="K26" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
@@ -3560,10 +3570,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3585,7 +3595,7 @@
         <v>182</v>
       </c>
       <c r="K27" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" ht="56" thickBot="1">
@@ -3600,10 +3610,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3625,7 +3635,7 @@
         <v>184</v>
       </c>
       <c r="K28" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" ht="44">
@@ -3640,10 +3650,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="F29" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3665,7 +3675,7 @@
         <v>186</v>
       </c>
       <c r="K29" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" ht="55">
@@ -3680,10 +3690,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3705,7 +3715,7 @@
         <v>188</v>
       </c>
       <c r="K30" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
@@ -3720,10 +3730,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F31" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3745,7 +3755,7 @@
         <v>190</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" ht="23" thickBot="1">
@@ -3760,10 +3770,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F32" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3785,7 +3795,7 @@
         <v>192</v>
       </c>
       <c r="K32" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" ht="33">
@@ -3800,10 +3810,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F33" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3825,25 +3835,25 @@
         <v>194</v>
       </c>
       <c r="K33" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A34" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="106" t="s">
-        <v>258</v>
+      <c r="B34" s="75" t="s">
+        <v>257</v>
       </c>
       <c r="C34" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F34" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3861,29 +3871,29 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="106" t="s">
+      <c r="J34" s="75" t="s">
         <v>195</v>
       </c>
       <c r="K34" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A35" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="106" t="s">
-        <v>259</v>
+      <c r="B35" s="75" t="s">
+        <v>258</v>
       </c>
       <c r="C35" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F35" s="11" t="str">
         <f t="shared" si="4"/>
@@ -3901,28 +3911,30 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="106" t="s">
-        <v>260</v>
+      <c r="J35" s="75" t="s">
+        <v>259</v>
       </c>
       <c r="K35" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A36" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="106" t="s">
-        <v>261</v>
+      <c r="B36" s="75" t="s">
+        <v>260</v>
       </c>
       <c r="C36" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F36" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG27_small</v>
@@ -3939,28 +3951,30 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="106" t="s">
+      <c r="J36" s="75" t="s">
         <v>196</v>
       </c>
       <c r="K36" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A37" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="106" t="s">
-        <v>262</v>
+      <c r="B37" s="75" t="s">
+        <v>261</v>
       </c>
       <c r="C37" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="11"/>
       <c r="F37" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG28_small</v>
@@ -3977,28 +3991,30 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="106" t="s">
+      <c r="J37" s="75" t="s">
         <v>197</v>
       </c>
       <c r="K37" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A38" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="106" t="s">
-        <v>263</v>
+      <c r="B38" s="75" t="s">
+        <v>262</v>
       </c>
       <c r="C38" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E38" s="11"/>
       <c r="F38" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG29_small</v>
@@ -4015,28 +4031,30 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="106" t="s">
+      <c r="J38" s="75" t="s">
         <v>198</v>
       </c>
       <c r="K38" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A39" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="106" t="s">
-        <v>264</v>
+      <c r="B39" s="75" t="s">
+        <v>263</v>
       </c>
       <c r="C39" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E39" s="11"/>
       <c r="F39" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG30_small</v>
@@ -4053,11 +4071,11 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="106" t="s">
-        <v>265</v>
+      <c r="J39" s="75" t="s">
+        <v>264</v>
       </c>
       <c r="K39" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="46" thickBot="1">
@@ -4072,9 +4090,11 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F40" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG31_small</v>
@@ -4091,28 +4111,30 @@
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="106" t="s">
+      <c r="J40" s="75" t="s">
         <v>200</v>
       </c>
       <c r="K40" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A41" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>199</v>
+      <c r="B41" s="107" t="s">
+        <v>201</v>
       </c>
       <c r="C41" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F41" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG32_small</v>
@@ -4129,11 +4151,11 @@
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="K41" s="59" t="s">
-        <v>257</v>
+      <c r="J41" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="107" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
@@ -4148,7 +4170,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="str">
@@ -4168,27 +4190,29 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J42" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K42" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A43" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="59" t="s">
-        <v>201</v>
+      <c r="B43" s="57" t="s">
+        <v>204</v>
       </c>
       <c r="C43" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="11"/>
       <c r="F43" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG34_small</v>
@@ -4205,18 +4229,18 @@
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J43" s="57" t="s">
-        <v>203</v>
+      <c r="J43" s="58" t="s">
+        <v>205</v>
       </c>
       <c r="K43" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="44">
       <c r="A44" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="59" t="s">
         <v>204</v>
       </c>
       <c r="C44" s="17" t="str">
@@ -4224,9 +4248,11 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F44" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG35_small</v>
@@ -4244,10 +4270,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J44" s="58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K44" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="44">
@@ -4255,16 +4281,18 @@
         <v>249</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C45" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="11"/>
       <c r="F45" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG36_small</v>
@@ -4282,27 +4310,29 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K45" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="44">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
       <c r="A46" s="62" t="s">
         <v>250</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C46" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E46" s="11"/>
       <c r="F46" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG37_small</v>
@@ -4320,27 +4350,29 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J46" s="58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K46" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
       <c r="A47" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="59" t="s">
-        <v>209</v>
+      <c r="B47" s="57" t="s">
+        <v>211</v>
       </c>
       <c r="C47" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F47" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG38_small</v>
@@ -4357,28 +4389,30 @@
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="58" t="s">
-        <v>210</v>
+      <c r="J47" s="59" t="s">
+        <v>212</v>
       </c>
       <c r="K47" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="55">
       <c r="A48" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="57" t="s">
-        <v>211</v>
+      <c r="B48" s="59" t="s">
+        <v>213</v>
       </c>
       <c r="C48" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F48" s="11" t="str">
         <f t="shared" si="4"/>
         <v>CS_07_01_CO_IMG39_small</v>
@@ -4396,49 +4430,39 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J48" s="59" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K48" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" ht="55">
-      <c r="A49" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>213</v>
-      </c>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="9" customFormat="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>254</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG40_small</v>
+        <v/>
       </c>
       <c r="G49" s="11" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H49" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG40_zoom</v>
+        <v/>
       </c>
       <c r="I49" s="11" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J49" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="K49" s="59" t="s">
-        <v>257</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" s="9" customFormat="1">
       <c r="A50" s="17"/>
@@ -4694,7 +4718,7 @@
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1">
       <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5066,7 +5090,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F72:F105" si="6">IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I72="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G72" s="11" t="str">
@@ -5074,7 +5098,7 @@
         <v/>
       </c>
       <c r="H72" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H72:H105" si="7">IF(AND(I72&lt;&gt;"",I72&lt;&gt;0),IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I72" s="11" t="str">
@@ -5094,7 +5118,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="str">
-        <f t="shared" ref="F73:F106" si="6">IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE($C$7,"_",$A73,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I73="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G73" s="11" t="str">
@@ -5102,7 +5126,7 @@
         <v/>
       </c>
       <c r="H73" s="11" t="str">
-        <f t="shared" ref="H73:H106" si="7">IF(AND(I73&lt;&gt;"",I73&lt;&gt;0),IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE($C$7,"_",$A73,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I73" s="11" t="str">
@@ -5116,7 +5140,7 @@
       <c r="A74" s="17"/>
       <c r="B74" s="10"/>
       <c r="C74" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C74:C105" si="8">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D74" s="11"/>
@@ -5144,7 +5168,7 @@
       <c r="A75" s="17"/>
       <c r="B75" s="10"/>
       <c r="C75" s="17" t="str">
-        <f t="shared" ref="C75:C106" si="8">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D75" s="11"/>
@@ -6007,34 +6031,6 @@
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="12"/>
-    </row>
-    <row r="106" spans="1:11" s="9" customFormat="1">
-      <c r="A106" s="17"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G106" s="11" t="str">
-        <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H106" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I106" s="11" t="str">
-        <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J106" s="11"/>
-      <c r="K106" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6077,14 +6073,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E105">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D105">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6114,25 +6111,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6140,11 +6137,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="27"/>
       <c r="H3" s="18" t="s">
         <v>18</v>
@@ -6195,11 +6192,11 @@
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="102" t="str">
+      <c r="D5" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="103"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -6244,12 +6241,12 @@
       <c r="C7" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="88" t="str">
+      <c r="D7" s="89" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="H7" s="18" t="s">
         <v>24</v>
       </c>
@@ -6343,14 +6340,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
       <c r="I13" s="18" t="s">
         <v>33</v>
       </c>
@@ -6383,12 +6380,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
       <c r="J15" s="18">
         <v>12</v>
       </c>
@@ -6428,12 +6425,12 @@
       <c r="C17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="96" t="str">
+      <c r="D17" s="97" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="J17" s="18">
         <v>14</v>
       </c>
@@ -6449,12 +6446,12 @@
       <c r="C18" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="89" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
       <c r="J18" s="18">
         <v>15</v>
       </c>
@@ -6858,41 +6855,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="35" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado07/guion01/SolicitudGraficaCS_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/SolicitudGraficaCS_07_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25000" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="2760" yWindow="420" windowWidth="19740" windowHeight="12380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="189">
   <si>
     <t>Fecha:</t>
   </si>
@@ -514,245 +514,9 @@
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
-    <t>2 Eso/Ciencias sociales/la alta edad media/la caida del imperio romano de occidente</t>
-  </si>
-  <si>
-    <t>Confrontación entre guerreros</t>
-  </si>
-  <si>
     <t>Eugenia Arce</t>
   </si>
   <si>
-    <t>2 Eso/Ciencias Sociales/la civilización islámica: Al-Andalus/el origen de la civilización islámica</t>
-  </si>
-  <si>
-    <t>Ilustración de Mahoma predicando</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la civilización islámica: Al-Andalus/la expansión del islam</t>
-  </si>
-  <si>
-    <t>Foto de la Cupula del tesoro</t>
-  </si>
-  <si>
-    <t>Mapa del imperio islámico</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la civilización islámica: Al-Andalus/la expansión del islam/califato omeya o califato de damasco</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la alta edad media/el imperio carolingio</t>
-  </si>
-  <si>
-    <t>Pintura coronación de Carlomagno</t>
-  </si>
-  <si>
-    <t>Fresco  sobre un episodio de las cruzadas</t>
-  </si>
-  <si>
-    <t>Pintura coronación de Enrique III</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la baja edad media/el Estado feudal</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la baja edad media/el Estado feudal/las cortes medievales</t>
-  </si>
-  <si>
-    <t>Pintura parlamento de Inglaterra</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la baja edad media/el Estado feudal/la expansión de los reinos europeos</t>
-  </si>
-  <si>
-    <t>Pintura Guerra de los Cien Años</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la alta edad media/la nobleza</t>
-  </si>
-  <si>
-    <t>Pintura homenaje feudal a un obispo</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la alta edad media/los campesinos</t>
-  </si>
-  <si>
-    <t>Fotografía del relieve de un capitel de un labriego</t>
-  </si>
-  <si>
-    <t>Ilustración Grupo de comerciantes reunidos</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la baja edad media/el renacer del mundo urbano/la sociedad urbana</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/el renacer del mundo urbano/la sociedad urbana</t>
-  </si>
-  <si>
-    <t>Ilustración candelabro de siete brazos</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/el comercio medieval/los artesanos y los gremios</t>
-  </si>
-  <si>
-    <t>Pintura taller medieval</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/el comercio medieval</t>
-  </si>
-  <si>
-    <t>Pintura ciudad con puerto</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/el renacer del mundo urbano</t>
-  </si>
-  <si>
-    <t>Ilustración campesinos trabajando la tierra (arado de bueyes)</t>
-  </si>
-  <si>
-    <t>Gráfica sistema de rotación trienal de cultivos</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/el renacer del mundo urbano/la ciudad medieval</t>
-  </si>
-  <si>
-    <t>Ilustración Alegoría del buen gobierno</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/La cultura y el arte en la Baja Edad Media/las ciudadades medievales/los nuevos espacios</t>
-  </si>
-  <si>
-    <t>Ilustración puerto de Nápoles</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/La cultura y el arte en la Baja Edad Media/las ciudades medievales</t>
-  </si>
-  <si>
-    <t>Foto campanario de Brujas, Bélgica</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/La cultura y el arte en la Baja Edad Media/las ciudades medievales/las universidades medievales</t>
-  </si>
-  <si>
-    <t>Foto Universidad de Salamanca</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/el gobierno de las ciudades</t>
-  </si>
-  <si>
-    <t>Ilustración Consejo mayor Republica marítima de Venecia</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Alta Edad Media/la Iglesia</t>
-  </si>
-  <si>
-    <t>Pintura de un amanuense</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la Baja Edad Media/la Iglesia en baja edad media</t>
-  </si>
-  <si>
-    <t>Fotografía castillo en Aviñon</t>
-  </si>
-  <si>
-    <t>Ilustración sobre el precepto “reza y trabaja”</t>
-  </si>
-  <si>
-    <t>Ilustración basílica de Santa Sofía</t>
-  </si>
-  <si>
-    <t>Foto cátedra del obispo Maximiliano</t>
-  </si>
-  <si>
-    <t>Foto interior de la basílica de Santa Sofía de Constantinopla</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la Alta Edad Media/el arte mozárabe</t>
-  </si>
-  <si>
-    <t>Ilustración de una página de los Comentarios al Apocalipsis</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la baja edad media/el arte gótico/la arquitectura</t>
-  </si>
-  <si>
-    <t>Ilustración catedral de Amiens</t>
-  </si>
-  <si>
-    <t>Foto iglesia de Santa María del Mar</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la baja edad media/el arte gótico/ la escultura gótica</t>
-  </si>
-  <si>
-    <t>Foto tímpano de la facha sur de la catedral de León</t>
-  </si>
-  <si>
-    <t>Foto el sepulcro de San Martín</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la baja edad media/el arte gótico/la pintura gótica</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ilustración </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">El lavatorio </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>de Giotto di Bondone</t>
-    </r>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la baja edad media/el arte gótico/ la pintura gótica</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ilustración </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Piedad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> de Rogier Van der Weyden</t>
-    </r>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la cultura y el arte en la baja edad media/el arte mudéjar/</t>
-  </si>
-  <si>
-    <t>Foto El salón de los Embajadores, Reales Alcázares de Sevilla</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias sociales/la baja edad media/la crisis bajomedieval/la crisis agrícola, el hambre y la peste</t>
-  </si>
-  <si>
-    <t>Ilustración representación de las danzas de la muerte</t>
-  </si>
-  <si>
     <t>IMG02</t>
   </si>
   <si>
@@ -867,43 +631,10 @@
     <t>IMG39</t>
   </si>
   <si>
-    <t>Fotografía</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/la cultura en la Edad Media/los monasterios y las órdenes religiosas</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos</t>
-  </si>
-  <si>
-    <t>Foto díptico El emperador triunfante de Barberini</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/arquitectura</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/escultura</t>
-  </si>
-  <si>
-    <t>2 Eso/Ciencias Sociales/la cultura y el arte en la Alta Edad Media/El arte y la cultura bizantinos/pintura y mosaico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Eso/Ciencias Media/el arte mozárabe Sociales/la cultura y el arte en la Alta Edad </t>
-  </si>
-  <si>
-    <t>Foto interior de la iglesia del monasterio de San Miguel de Escala</t>
-  </si>
-  <si>
-    <t>Ilustración</t>
+    <t>2 Eso/Ciencias Sociales/La alta edad media/La caída del imperio romano de occidente</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0005PY01&amp;ruta=Buscador</t>
   </si>
 </sst>
 </file>
@@ -1062,14 +793,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -1635,7 +1365,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1839,7 +1569,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,11 +1660,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -2682,9 +2418,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2722,14 +2458,14 @@
       <c r="B2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="76" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="77"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="13"/>
@@ -2739,14 +2475,14 @@
       <c r="B3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="87">
         <v>7</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="F3" s="78">
-        <v>42071</v>
-      </c>
-      <c r="G3" s="79"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80">
+        <v>42086</v>
+      </c>
+      <c r="G3" s="81"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="13"/>
@@ -2756,10 +2492,10 @@
       <c r="B4" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="3"/>
       <c r="F4" s="68" t="s">
         <v>55</v>
@@ -2777,10 +2513,10 @@
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="88"/>
+      <c r="C5" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="90"/>
       <c r="E5" s="3"/>
       <c r="F5" s="32" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2829,12 +2565,12 @@
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="15"/>
       <c r="K8" s="9"/>
       <c r="L8" s="2"/>
@@ -2878,1575 +2614,723 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="75">
       <c r="A10" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="17" t="str">
-        <f t="shared" ref="C10" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="11" t="str">
-        <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_07_01_CO_IMG01_small</v>
-      </c>
+      <c r="B10" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="11" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H10" s="11" t="str">
-        <f t="shared" ref="H10" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_07_01_CO_IMG01_zoom</v>
-      </c>
-      <c r="I10" s="11" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J10" s="58" t="s">
+        <v/>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:16" s="9" customFormat="1" ht="75">
+      <c r="A11" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" ht="44">
-      <c r="A11" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="17" t="str">
-        <f t="shared" ref="C11:C73" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="11" t="str">
-        <f t="shared" ref="F11:F71" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_07_01_CO_IMG02_small</v>
-      </c>
+      <c r="B11" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H11" s="11" t="str">
-        <f t="shared" ref="H11:H71" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_07_01_CO_IMG02_zoom</v>
-      </c>
-      <c r="I11" s="11" t="str">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" ht="44">
+        <v/>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:16" s="9" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG03_small</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="11" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H12" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG03_zoom</v>
-      </c>
-      <c r="I12" s="11" t="str">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="9" customFormat="1" ht="56" thickBot="1">
+        <v/>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" spans="1:16" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A13" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG04_small</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="11" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H13" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG04_zoom</v>
-      </c>
-      <c r="I13" s="11" t="str">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A14" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG05_small</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="11" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H14" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG05_zoom</v>
-      </c>
-      <c r="I14" s="11" t="str">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:16" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A15" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG06_small</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="11" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H15" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG06_zoom</v>
-      </c>
-      <c r="I15" s="11" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A16" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG07_small</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="11" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H16" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG07_zoom</v>
-      </c>
-      <c r="I16" s="11" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="33">
+        <v/>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1">
       <c r="A17" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG08_small</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="11" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H17" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG08_zoom</v>
-      </c>
-      <c r="I17" s="11" t="str">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" ht="44">
+        <v/>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1">
       <c r="A18" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG09_small</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="11" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H18" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG09_zoom</v>
-      </c>
-      <c r="I18" s="11" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" ht="22">
+        <v/>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1">
       <c r="A19" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG10_small</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="11" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG10_zoom</v>
-      </c>
-      <c r="I19" s="11" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="33">
+        <v/>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1">
       <c r="A20" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG11_small</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="11" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H20" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG11_zoom</v>
-      </c>
-      <c r="I20" s="11" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A21" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG12_small</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="11" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H21" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG12_zoom</v>
-      </c>
-      <c r="I21" s="11" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A22" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG13_small</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="11" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H22" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG13_zoom</v>
-      </c>
-      <c r="I22" s="11" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="44">
+        <v/>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1">
       <c r="A23" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG14_small</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="11" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H23" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG14_zoom</v>
-      </c>
-      <c r="I23" s="11" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A24" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG15_small</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="11" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H24" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG15_zoom</v>
-      </c>
-      <c r="I24" s="11" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A25" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG16_small</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="11" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H25" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG16_zoom</v>
-      </c>
-      <c r="I25" s="11" t="str">
-        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" ht="33">
+        <v/>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="59"/>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1">
       <c r="A26" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG17_small</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="11" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H26" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG17_zoom</v>
-      </c>
-      <c r="I26" s="11" t="str">
-        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A27" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG18_small</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="11" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H27" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG18_zoom</v>
-      </c>
-      <c r="I27" s="11" t="str">
-        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="K27" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="56" thickBot="1">
+        <v/>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A28" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG19_small</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="11" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H28" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG19_zoom</v>
-      </c>
-      <c r="I28" s="11" t="str">
-        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" ht="44">
+        <v/>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1">
       <c r="A29" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F29" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG20_small</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="11" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H29" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG20_zoom</v>
-      </c>
-      <c r="I29" s="11" t="str">
-        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="55">
+        <v/>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1">
       <c r="A30" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG21_small</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="11" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H30" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG21_zoom</v>
-      </c>
-      <c r="I30" s="11" t="str">
-        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J30" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A31" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F31" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG22_small</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="11" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H31" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG22_zoom</v>
-      </c>
-      <c r="I31" s="11" t="str">
-        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="23" thickBot="1">
+        <v/>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A32" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG23_small</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="11" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H32" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG23_zoom</v>
-      </c>
-      <c r="I32" s="11" t="str">
-        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J32" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="33">
+        <v/>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+    </row>
+    <row r="33" spans="1:11" s="9" customFormat="1">
       <c r="A33" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F33" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG24_small</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="11" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H33" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG24_zoom</v>
-      </c>
-      <c r="I33" s="11" t="str">
-        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J33" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A34" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG25_small</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="11" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H34" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG25_zoom</v>
-      </c>
-      <c r="I34" s="11" t="str">
-        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J34" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A35" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F35" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG26_small</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B35" s="75"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="11" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H35" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG26_zoom</v>
-      </c>
-      <c r="I35" s="11" t="str">
-        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J35" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="K35" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A36" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F36" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG27_small</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="11" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H36" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG27_zoom</v>
-      </c>
-      <c r="I36" s="11" t="str">
-        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J36" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="K36" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A37" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F37" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG28_small</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B37" s="75"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="11" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H37" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG28_zoom</v>
-      </c>
-      <c r="I37" s="11" t="str">
-        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J37" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="K37" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A38" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG29_small</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="11" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H38" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG29_zoom</v>
-      </c>
-      <c r="I38" s="11" t="str">
-        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J38" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="K38" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="15">
       <c r="A39" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="C39" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F39" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG30_small</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="11" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H39" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG30_zoom</v>
-      </c>
-      <c r="I39" s="11" t="str">
-        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J39" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="K39" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" ht="46" thickBot="1">
+        <v/>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="59"/>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A40" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG31_small</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B40" s="59"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="11" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H40" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG31_zoom</v>
-      </c>
-      <c r="I40" s="11" t="str">
-        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J40" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="59"/>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A41" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG32_small</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B41" s="76"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="11" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H41" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG32_zoom</v>
-      </c>
-      <c r="I41" s="11" t="str">
-        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J41" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="K41" s="107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="76"/>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A42" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG33_small</v>
-      </c>
+      <c r="F42" s="11"/>
       <c r="G42" s="11" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H42" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG33_zoom</v>
-      </c>
-      <c r="I42" s="11" t="str">
-        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J42" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K42" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="59"/>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A43" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG34_small</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="11" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H43" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG34_zoom</v>
-      </c>
-      <c r="I43" s="11" t="str">
-        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J43" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="K43" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="44">
+        <v/>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="59"/>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1">
       <c r="A44" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG35_small</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B44" s="59"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="11" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H44" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG35_zoom</v>
-      </c>
-      <c r="I44" s="11" t="str">
-        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J44" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="K44" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="44">
+        <v/>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1">
       <c r="A45" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG36_small</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="11" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H45" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG36_zoom</v>
-      </c>
-      <c r="I45" s="11" t="str">
-        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J45" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="K45" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="45" thickBot="1">
+        <v/>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="59"/>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A46" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG37_small</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="11" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H46" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG37_zoom</v>
-      </c>
-      <c r="I46" s="11" t="str">
-        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J46" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="K46" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="34" thickBot="1">
+        <v/>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="14" thickBot="1">
       <c r="A47" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C47" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG38_small</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B47" s="57"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="11" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H47" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG38_zoom</v>
-      </c>
-      <c r="I47" s="11" t="str">
-        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J47" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="K47" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="55">
+        <v/>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1">
       <c r="A48" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>CS_07_01_CO_IMG39_small</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="11" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H48" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_07_01_CO_IMG39_zoom</v>
-      </c>
-      <c r="I48" s="11" t="str">
-        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J48" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="K48" s="59" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C11:C73" si="0">IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F11:F71" si="1">IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),CONCATENATE($C$7,"_",$A49,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I49="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G49" s="11" t="str">
@@ -4454,7 +3338,7 @@
         <v/>
       </c>
       <c r="H49" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H11:H71" si="2">IF(AND(I49&lt;&gt;"",I49&lt;&gt;0),IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),CONCATENATE($C$7,"_",$A49,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I49" s="11" t="str">
@@ -4468,13 +3352,13 @@
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G50" s="11" t="str">
@@ -4482,7 +3366,7 @@
         <v/>
       </c>
       <c r="H50" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I50" s="11" t="str">
@@ -4496,13 +3380,13 @@
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G51" s="11" t="str">
@@ -4510,7 +3394,7 @@
         <v/>
       </c>
       <c r="H51" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I51" s="11" t="str">
@@ -4524,13 +3408,13 @@
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G52" s="11" t="str">
@@ -4538,7 +3422,7 @@
         <v/>
       </c>
       <c r="H52" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I52" s="11" t="str">
@@ -4552,13 +3436,13 @@
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G53" s="11" t="str">
@@ -4566,7 +3450,7 @@
         <v/>
       </c>
       <c r="H53" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I53" s="11" t="str">
@@ -4580,13 +3464,13 @@
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G54" s="11" t="str">
@@ -4594,7 +3478,7 @@
         <v/>
       </c>
       <c r="H54" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I54" s="11" t="str">
@@ -4608,13 +3492,13 @@
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G55" s="11" t="str">
@@ -4622,7 +3506,7 @@
         <v/>
       </c>
       <c r="H55" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I55" s="11" t="str">
@@ -4636,13 +3520,13 @@
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G56" s="11" t="str">
@@ -4650,7 +3534,7 @@
         <v/>
       </c>
       <c r="H56" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I56" s="11" t="str">
@@ -4664,13 +3548,13 @@
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G57" s="11" t="str">
@@ -4678,7 +3562,7 @@
         <v/>
       </c>
       <c r="H57" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I57" s="11" t="str">
@@ -4692,13 +3576,13 @@
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G58" s="11" t="str">
@@ -4706,7 +3590,7 @@
         <v/>
       </c>
       <c r="H58" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I58" s="11" t="str">
@@ -4720,13 +3604,13 @@
       <c r="A59" s="17"/>
       <c r="B59" s="10"/>
       <c r="C59" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G59" s="11" t="str">
@@ -4734,7 +3618,7 @@
         <v/>
       </c>
       <c r="H59" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I59" s="11" t="str">
@@ -4748,13 +3632,13 @@
       <c r="A60" s="17"/>
       <c r="B60" s="10"/>
       <c r="C60" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G60" s="11" t="str">
@@ -4762,7 +3646,7 @@
         <v/>
       </c>
       <c r="H60" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I60" s="11" t="str">
@@ -4776,13 +3660,13 @@
       <c r="A61" s="17"/>
       <c r="B61" s="10"/>
       <c r="C61" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G61" s="11" t="str">
@@ -4790,7 +3674,7 @@
         <v/>
       </c>
       <c r="H61" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I61" s="11" t="str">
@@ -4804,13 +3688,13 @@
       <c r="A62" s="17"/>
       <c r="B62" s="10"/>
       <c r="C62" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G62" s="11" t="str">
@@ -4818,7 +3702,7 @@
         <v/>
       </c>
       <c r="H62" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I62" s="11" t="str">
@@ -4832,13 +3716,13 @@
       <c r="A63" s="17"/>
       <c r="B63" s="10"/>
       <c r="C63" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G63" s="11" t="str">
@@ -4846,7 +3730,7 @@
         <v/>
       </c>
       <c r="H63" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I63" s="11" t="str">
@@ -4860,13 +3744,13 @@
       <c r="A64" s="17"/>
       <c r="B64" s="10"/>
       <c r="C64" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G64" s="11" t="str">
@@ -4874,7 +3758,7 @@
         <v/>
       </c>
       <c r="H64" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I64" s="11" t="str">
@@ -4888,13 +3772,13 @@
       <c r="A65" s="17"/>
       <c r="B65" s="10"/>
       <c r="C65" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G65" s="11" t="str">
@@ -4902,7 +3786,7 @@
         <v/>
       </c>
       <c r="H65" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I65" s="11" t="str">
@@ -4916,13 +3800,13 @@
       <c r="A66" s="17"/>
       <c r="B66" s="10"/>
       <c r="C66" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G66" s="11" t="str">
@@ -4930,7 +3814,7 @@
         <v/>
       </c>
       <c r="H66" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I66" s="11" t="str">
@@ -4944,13 +3828,13 @@
       <c r="A67" s="17"/>
       <c r="B67" s="10"/>
       <c r="C67" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G67" s="11" t="str">
@@ -4958,7 +3842,7 @@
         <v/>
       </c>
       <c r="H67" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I67" s="11" t="str">
@@ -4972,13 +3856,13 @@
       <c r="A68" s="17"/>
       <c r="B68" s="10"/>
       <c r="C68" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G68" s="11" t="str">
@@ -4986,7 +3870,7 @@
         <v/>
       </c>
       <c r="H68" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I68" s="11" t="str">
@@ -5000,13 +3884,13 @@
       <c r="A69" s="17"/>
       <c r="B69" s="10"/>
       <c r="C69" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G69" s="11" t="str">
@@ -5014,7 +3898,7 @@
         <v/>
       </c>
       <c r="H69" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I69" s="11" t="str">
@@ -5028,13 +3912,13 @@
       <c r="A70" s="17"/>
       <c r="B70" s="10"/>
       <c r="C70" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G70" s="11" t="str">
@@ -5042,7 +3926,7 @@
         <v/>
       </c>
       <c r="H70" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I70" s="11" t="str">
@@ -5056,13 +3940,13 @@
       <c r="A71" s="17"/>
       <c r="B71" s="10"/>
       <c r="C71" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G71" s="11" t="str">
@@ -5070,7 +3954,7 @@
         <v/>
       </c>
       <c r="H71" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I71" s="11" t="str">
@@ -5084,13 +3968,13 @@
       <c r="A72" s="17"/>
       <c r="B72" s="10"/>
       <c r="C72" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="str">
-        <f t="shared" ref="F72:F105" si="6">IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I72="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F72:F105" si="3">IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I72="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G72" s="11" t="str">
@@ -5098,7 +3982,7 @@
         <v/>
       </c>
       <c r="H72" s="11" t="str">
-        <f t="shared" ref="H72:H105" si="7">IF(AND(I72&lt;&gt;"",I72&lt;&gt;0),IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H72:H105" si="4">IF(AND(I72&lt;&gt;"",I72&lt;&gt;0),IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I72" s="11" t="str">
@@ -5112,13 +3996,13 @@
       <c r="A73" s="17"/>
       <c r="B73" s="10"/>
       <c r="C73" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G73" s="11" t="str">
@@ -5126,7 +4010,7 @@
         <v/>
       </c>
       <c r="H73" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I73" s="11" t="str">
@@ -5140,13 +4024,13 @@
       <c r="A74" s="17"/>
       <c r="B74" s="10"/>
       <c r="C74" s="17" t="str">
-        <f t="shared" ref="C74:C105" si="8">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C74:C105" si="5">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G74" s="11" t="str">
@@ -5154,7 +4038,7 @@
         <v/>
       </c>
       <c r="H74" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I74" s="11" t="str">
@@ -5168,13 +4052,13 @@
       <c r="A75" s="17"/>
       <c r="B75" s="10"/>
       <c r="C75" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G75" s="11" t="str">
@@ -5182,7 +4066,7 @@
         <v/>
       </c>
       <c r="H75" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I75" s="11" t="str">
@@ -5196,13 +4080,13 @@
       <c r="A76" s="17"/>
       <c r="B76" s="10"/>
       <c r="C76" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G76" s="11" t="str">
@@ -5210,7 +4094,7 @@
         <v/>
       </c>
       <c r="H76" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I76" s="11" t="str">
@@ -5224,13 +4108,13 @@
       <c r="A77" s="17"/>
       <c r="B77" s="10"/>
       <c r="C77" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G77" s="11" t="str">
@@ -5238,7 +4122,7 @@
         <v/>
       </c>
       <c r="H77" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I77" s="11" t="str">
@@ -5252,13 +4136,13 @@
       <c r="A78" s="17"/>
       <c r="B78" s="10"/>
       <c r="C78" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G78" s="11" t="str">
@@ -5266,7 +4150,7 @@
         <v/>
       </c>
       <c r="H78" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I78" s="11" t="str">
@@ -5280,13 +4164,13 @@
       <c r="A79" s="17"/>
       <c r="B79" s="10"/>
       <c r="C79" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G79" s="11" t="str">
@@ -5294,7 +4178,7 @@
         <v/>
       </c>
       <c r="H79" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I79" s="11" t="str">
@@ -5308,13 +4192,13 @@
       <c r="A80" s="17"/>
       <c r="B80" s="10"/>
       <c r="C80" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G80" s="11" t="str">
@@ -5322,7 +4206,7 @@
         <v/>
       </c>
       <c r="H80" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I80" s="11" t="str">
@@ -5336,13 +4220,13 @@
       <c r="A81" s="17"/>
       <c r="B81" s="10"/>
       <c r="C81" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G81" s="11" t="str">
@@ -5350,7 +4234,7 @@
         <v/>
       </c>
       <c r="H81" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I81" s="11" t="str">
@@ -5364,13 +4248,13 @@
       <c r="A82" s="17"/>
       <c r="B82" s="10"/>
       <c r="C82" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G82" s="11" t="str">
@@ -5378,7 +4262,7 @@
         <v/>
       </c>
       <c r="H82" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I82" s="11" t="str">
@@ -5392,13 +4276,13 @@
       <c r="A83" s="17"/>
       <c r="B83" s="10"/>
       <c r="C83" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G83" s="11" t="str">
@@ -5406,7 +4290,7 @@
         <v/>
       </c>
       <c r="H83" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I83" s="11" t="str">
@@ -5420,13 +4304,13 @@
       <c r="A84" s="17"/>
       <c r="B84" s="10"/>
       <c r="C84" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G84" s="11" t="str">
@@ -5434,7 +4318,7 @@
         <v/>
       </c>
       <c r="H84" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I84" s="11" t="str">
@@ -5448,13 +4332,13 @@
       <c r="A85" s="17"/>
       <c r="B85" s="10"/>
       <c r="C85" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G85" s="11" t="str">
@@ -5462,7 +4346,7 @@
         <v/>
       </c>
       <c r="H85" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I85" s="11" t="str">
@@ -5476,13 +4360,13 @@
       <c r="A86" s="17"/>
       <c r="B86" s="10"/>
       <c r="C86" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G86" s="11" t="str">
@@ -5490,7 +4374,7 @@
         <v/>
       </c>
       <c r="H86" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I86" s="11" t="str">
@@ -5504,13 +4388,13 @@
       <c r="A87" s="17"/>
       <c r="B87" s="10"/>
       <c r="C87" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G87" s="11" t="str">
@@ -5518,7 +4402,7 @@
         <v/>
       </c>
       <c r="H87" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I87" s="11" t="str">
@@ -5532,13 +4416,13 @@
       <c r="A88" s="17"/>
       <c r="B88" s="10"/>
       <c r="C88" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G88" s="11" t="str">
@@ -5546,7 +4430,7 @@
         <v/>
       </c>
       <c r="H88" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I88" s="11" t="str">
@@ -5560,13 +4444,13 @@
       <c r="A89" s="17"/>
       <c r="B89" s="10"/>
       <c r="C89" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G89" s="11" t="str">
@@ -5574,7 +4458,7 @@
         <v/>
       </c>
       <c r="H89" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I89" s="11" t="str">
@@ -5588,13 +4472,13 @@
       <c r="A90" s="17"/>
       <c r="B90" s="10"/>
       <c r="C90" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G90" s="11" t="str">
@@ -5602,7 +4486,7 @@
         <v/>
       </c>
       <c r="H90" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I90" s="11" t="str">
@@ -5616,13 +4500,13 @@
       <c r="A91" s="17"/>
       <c r="B91" s="10"/>
       <c r="C91" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G91" s="11" t="str">
@@ -5630,7 +4514,7 @@
         <v/>
       </c>
       <c r="H91" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I91" s="11" t="str">
@@ -5644,13 +4528,13 @@
       <c r="A92" s="17"/>
       <c r="B92" s="10"/>
       <c r="C92" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G92" s="11" t="str">
@@ -5658,7 +4542,7 @@
         <v/>
       </c>
       <c r="H92" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I92" s="11" t="str">
@@ -5672,13 +4556,13 @@
       <c r="A93" s="17"/>
       <c r="B93" s="10"/>
       <c r="C93" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G93" s="11" t="str">
@@ -5686,7 +4570,7 @@
         <v/>
       </c>
       <c r="H93" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I93" s="11" t="str">
@@ -5700,13 +4584,13 @@
       <c r="A94" s="17"/>
       <c r="B94" s="10"/>
       <c r="C94" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G94" s="11" t="str">
@@ -5714,7 +4598,7 @@
         <v/>
       </c>
       <c r="H94" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I94" s="11" t="str">
@@ -5728,13 +4612,13 @@
       <c r="A95" s="17"/>
       <c r="B95" s="10"/>
       <c r="C95" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G95" s="11" t="str">
@@ -5742,7 +4626,7 @@
         <v/>
       </c>
       <c r="H95" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I95" s="11" t="str">
@@ -5756,13 +4640,13 @@
       <c r="A96" s="17"/>
       <c r="B96" s="10"/>
       <c r="C96" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G96" s="11" t="str">
@@ -5770,7 +4654,7 @@
         <v/>
       </c>
       <c r="H96" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I96" s="11" t="str">
@@ -5784,13 +4668,13 @@
       <c r="A97" s="17"/>
       <c r="B97" s="10"/>
       <c r="C97" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G97" s="11" t="str">
@@ -5798,7 +4682,7 @@
         <v/>
       </c>
       <c r="H97" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I97" s="11" t="str">
@@ -5812,13 +4696,13 @@
       <c r="A98" s="17"/>
       <c r="B98" s="10"/>
       <c r="C98" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G98" s="11" t="str">
@@ -5826,7 +4710,7 @@
         <v/>
       </c>
       <c r="H98" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I98" s="11" t="str">
@@ -5840,13 +4724,13 @@
       <c r="A99" s="17"/>
       <c r="B99" s="10"/>
       <c r="C99" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G99" s="11" t="str">
@@ -5854,7 +4738,7 @@
         <v/>
       </c>
       <c r="H99" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I99" s="11" t="str">
@@ -5868,13 +4752,13 @@
       <c r="A100" s="17"/>
       <c r="B100" s="10"/>
       <c r="C100" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G100" s="11" t="str">
@@ -5882,7 +4766,7 @@
         <v/>
       </c>
       <c r="H100" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I100" s="11" t="str">
@@ -5896,13 +4780,13 @@
       <c r="A101" s="17"/>
       <c r="B101" s="10"/>
       <c r="C101" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G101" s="11" t="str">
@@ -5910,7 +4794,7 @@
         <v/>
       </c>
       <c r="H101" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I101" s="11" t="str">
@@ -5924,13 +4808,13 @@
       <c r="A102" s="17"/>
       <c r="B102" s="10"/>
       <c r="C102" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G102" s="11" t="str">
@@ -5938,7 +4822,7 @@
         <v/>
       </c>
       <c r="H102" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I102" s="11" t="str">
@@ -5952,13 +4836,13 @@
       <c r="A103" s="17"/>
       <c r="B103" s="10"/>
       <c r="C103" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G103" s="11" t="str">
@@ -5966,7 +4850,7 @@
         <v/>
       </c>
       <c r="H103" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I103" s="11" t="str">
@@ -5980,13 +4864,13 @@
       <c r="A104" s="17"/>
       <c r="B104" s="10"/>
       <c r="C104" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G104" s="11" t="str">
@@ -5994,7 +4878,7 @@
         <v/>
       </c>
       <c r="H104" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I104" s="11" t="str">
@@ -6008,13 +4892,13 @@
       <c r="A105" s="17"/>
       <c r="B105" s="10"/>
       <c r="C105" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G105" s="11" t="str">
@@ -6022,7 +4906,7 @@
         <v/>
       </c>
       <c r="H105" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I105" s="11" t="str">
@@ -6081,7 +4965,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6111,25 +4994,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6137,11 +5020,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="27"/>
       <c r="H3" s="18" t="s">
         <v>18</v>
@@ -6192,11 +5075,11 @@
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="103" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -6241,12 +5124,12 @@
       <c r="C7" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="89" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="18" t="s">
         <v>24</v>
       </c>
@@ -6340,14 +5223,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="18" t="s">
         <v>33</v>
       </c>
@@ -6380,12 +5263,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="18">
         <v>12</v>
       </c>
@@ -6425,12 +5308,12 @@
       <c r="C17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="97" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="18">
         <v>14</v>
       </c>
@@ -6446,12 +5329,12 @@
       <c r="C18" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="18">
         <v>15</v>
       </c>
@@ -6855,41 +5738,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="35" t="s">
         <v>65</v>
       </c>
